--- a/Momentum/PRESTAMISTA CCB/Testes do Relatório Prestamista de Venda CCB/05-2022/Registro Diário de Vendas - Empresa 95.xlsx
+++ b/Momentum/PRESTAMISTA CCB/Testes do Relatório Prestamista de Venda CCB/05-2022/Registro Diário de Vendas - Empresa 95.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\OneDrive - SMN Informatica LTDA\Área de Trabalho\Arquivos Pessoais\Arquivos_Pessoais\Momentum\PRESTAMISTA CCB\Testes do Relatório Prstamista de Venda CCB\05-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus Nascimento\OneDrive - SMN Informatica LTDA\Área de Trabalho\Personal Archives\-Personal-Archives\Momentum\PRESTAMISTA CCB\Testes do Relatório Prestamista de Venda CCB\05-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E329BB90-BA8F-4931-A1C0-E5106E0333D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF5F8D1-3ECF-4572-B557-97DE488ABC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{66BEA4A3-73B0-400F-812C-8E8017B92625}"/>
   </bookViews>
@@ -2973,6 +2973,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2983,28 +3005,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3324,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196C01BE-BB02-4A4E-934A-184D18E9995E}">
   <dimension ref="A1:X385"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A366" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I380" sqref="I380"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,21 +3354,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3386,38 +3386,38 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -3469,54 +3469,54 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="45" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="O8" s="40" t="s">
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="O8" s="48" t="s">
         <v>871</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="40" t="s">
+      <c r="U8" s="48" t="s">
         <v>872</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="39"/>
       <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
@@ -4478,12 +4478,12 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="22">
         <v>1440</v>
       </c>
@@ -4562,40 +4562,40 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="45" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43" t="s">
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
@@ -4622,7 +4622,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="7" t="s">
         <v>18</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="D29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
@@ -5595,12 +5595,12 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="22">
         <v>1560</v>
       </c>
@@ -5664,40 +5664,40 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="45" t="s">
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43" t="s">
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="45"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="7" t="s">
         <v>18</v>
       </c>
@@ -5734,7 +5734,7 @@
       <c r="D49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="7" t="s">
         <v>21</v>
       </c>
@@ -6193,12 +6193,12 @@
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="22">
         <v>720</v>
       </c>
@@ -6262,40 +6262,40 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="45" t="s">
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43" t="s">
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="39"/>
       <c r="F61" s="7" t="s">
         <v>12</v>
       </c>
@@ -6322,7 +6322,7 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="7" t="s">
         <v>18</v>
       </c>
@@ -6332,7 +6332,7 @@
       <c r="D62" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="45"/>
+      <c r="E62" s="39"/>
       <c r="F62" s="7" t="s">
         <v>21</v>
       </c>
@@ -6575,12 +6575,12 @@
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="22">
         <v>360</v>
       </c>
@@ -6644,40 +6644,40 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="45" t="s">
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43" t="s">
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
+      <c r="J70" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="39"/>
       <c r="B71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="45"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="7" t="s">
         <v>12</v>
       </c>
@@ -6704,7 +6704,7 @@
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="39"/>
       <c r="B72" s="7" t="s">
         <v>18</v>
       </c>
@@ -6714,7 +6714,7 @@
       <c r="D72" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E72" s="45"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="7" t="s">
         <v>21</v>
       </c>
@@ -7821,12 +7821,12 @@
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="22">
         <v>1800</v>
       </c>
@@ -7890,40 +7890,40 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="45" t="s">
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="43" t="s">
+      <c r="F92" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43" t="s">
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="7" t="s">
         <v>12</v>
       </c>
@@ -7950,7 +7950,7 @@
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="7" t="s">
         <v>18</v>
       </c>
@@ -7960,7 +7960,7 @@
       <c r="D94" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E94" s="45"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="7" t="s">
         <v>21</v>
       </c>
@@ -8779,12 +8779,12 @@
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
+      <c r="A106" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="22">
         <v>1320</v>
       </c>
@@ -8848,40 +8848,40 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
+      <c r="A110" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="45" t="s">
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="43" t="s">
+      <c r="F110" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43" t="s">
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="44" t="s">
+      <c r="C111" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="44"/>
-      <c r="E111" s="45"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="39"/>
       <c r="F111" s="7" t="s">
         <v>12</v>
       </c>
@@ -8908,7 +8908,7 @@
       </c>
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="7" t="s">
         <v>18</v>
       </c>
@@ -8918,7 +8918,7 @@
       <c r="D112" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="45"/>
+      <c r="E112" s="39"/>
       <c r="F112" s="7" t="s">
         <v>21</v>
       </c>
@@ -14993,12 +14993,12 @@
       </c>
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A197" s="41" t="s">
+      <c r="A197" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B197" s="42"/>
-      <c r="C197" s="42"/>
-      <c r="D197" s="42"/>
+      <c r="B197" s="38"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="38"/>
       <c r="E197" s="22">
         <v>10070</v>
       </c>
@@ -15062,40 +15062,40 @@
       <c r="M200" s="3"/>
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A201" s="45" t="s">
+      <c r="A201" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="43" t="s">
+      <c r="B201" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="43"/>
-      <c r="D201" s="43"/>
-      <c r="E201" s="45" t="s">
+      <c r="C201" s="40"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F201" s="43" t="s">
+      <c r="F201" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G201" s="43"/>
-      <c r="H201" s="43"/>
-      <c r="I201" s="43"/>
-      <c r="J201" s="43" t="s">
+      <c r="G201" s="40"/>
+      <c r="H201" s="40"/>
+      <c r="I201" s="40"/>
+      <c r="J201" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K201" s="43"/>
-      <c r="L201" s="43"/>
-      <c r="M201" s="43"/>
+      <c r="K201" s="40"/>
+      <c r="L201" s="40"/>
+      <c r="M201" s="40"/>
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A202" s="45"/>
+      <c r="A202" s="39"/>
       <c r="B202" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="44" t="s">
+      <c r="C202" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="44"/>
-      <c r="E202" s="45"/>
+      <c r="D202" s="41"/>
+      <c r="E202" s="39"/>
       <c r="F202" s="7" t="s">
         <v>12</v>
       </c>
@@ -15122,7 +15122,7 @@
       </c>
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A203" s="45"/>
+      <c r="A203" s="39"/>
       <c r="B203" s="7" t="s">
         <v>18</v>
       </c>
@@ -15132,7 +15132,7 @@
       <c r="D203" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E203" s="45"/>
+      <c r="E203" s="39"/>
       <c r="F203" s="7" t="s">
         <v>21</v>
       </c>
@@ -18255,12 +18255,12 @@
       </c>
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A247" s="41" t="s">
+      <c r="A247" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B247" s="42"/>
-      <c r="C247" s="42"/>
-      <c r="D247" s="42"/>
+      <c r="B247" s="38"/>
+      <c r="C247" s="38"/>
+      <c r="D247" s="38"/>
       <c r="E247" s="22">
         <v>5160</v>
       </c>
@@ -18324,40 +18324,40 @@
       <c r="M250" s="3"/>
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A251" s="45" t="s">
+      <c r="A251" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B251" s="43" t="s">
+      <c r="B251" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C251" s="43"/>
-      <c r="D251" s="43"/>
-      <c r="E251" s="45" t="s">
+      <c r="C251" s="40"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F251" s="43" t="s">
+      <c r="F251" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G251" s="43"/>
-      <c r="H251" s="43"/>
-      <c r="I251" s="43"/>
-      <c r="J251" s="43" t="s">
+      <c r="G251" s="40"/>
+      <c r="H251" s="40"/>
+      <c r="I251" s="40"/>
+      <c r="J251" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K251" s="43"/>
-      <c r="L251" s="43"/>
-      <c r="M251" s="43"/>
+      <c r="K251" s="40"/>
+      <c r="L251" s="40"/>
+      <c r="M251" s="40"/>
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A252" s="45"/>
+      <c r="A252" s="39"/>
       <c r="B252" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C252" s="44" t="s">
+      <c r="C252" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="44"/>
-      <c r="E252" s="45"/>
+      <c r="D252" s="41"/>
+      <c r="E252" s="39"/>
       <c r="F252" s="7" t="s">
         <v>12</v>
       </c>
@@ -18384,7 +18384,7 @@
       </c>
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A253" s="45"/>
+      <c r="A253" s="39"/>
       <c r="B253" s="7" t="s">
         <v>18</v>
       </c>
@@ -18394,7 +18394,7 @@
       <c r="D253" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E253" s="45"/>
+      <c r="E253" s="39"/>
       <c r="F253" s="7" t="s">
         <v>21</v>
       </c>
@@ -21013,12 +21013,12 @@
       </c>
     </row>
     <row r="290" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A290" s="41" t="s">
+      <c r="A290" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B290" s="42"/>
-      <c r="C290" s="42"/>
-      <c r="D290" s="42"/>
+      <c r="B290" s="38"/>
+      <c r="C290" s="38"/>
+      <c r="D290" s="38"/>
       <c r="E290" s="22">
         <v>4257</v>
       </c>
@@ -21082,40 +21082,40 @@
       <c r="M293" s="3"/>
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A294" s="45" t="s">
+      <c r="A294" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B294" s="43" t="s">
+      <c r="B294" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C294" s="43"/>
-      <c r="D294" s="43"/>
-      <c r="E294" s="45" t="s">
+      <c r="C294" s="40"/>
+      <c r="D294" s="40"/>
+      <c r="E294" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F294" s="43" t="s">
+      <c r="F294" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G294" s="43"/>
-      <c r="H294" s="43"/>
-      <c r="I294" s="43"/>
-      <c r="J294" s="43" t="s">
+      <c r="G294" s="40"/>
+      <c r="H294" s="40"/>
+      <c r="I294" s="40"/>
+      <c r="J294" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K294" s="43"/>
-      <c r="L294" s="43"/>
-      <c r="M294" s="43"/>
+      <c r="K294" s="40"/>
+      <c r="L294" s="40"/>
+      <c r="M294" s="40"/>
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A295" s="45"/>
+      <c r="A295" s="39"/>
       <c r="B295" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C295" s="44" t="s">
+      <c r="C295" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D295" s="44"/>
-      <c r="E295" s="45"/>
+      <c r="D295" s="41"/>
+      <c r="E295" s="39"/>
       <c r="F295" s="7" t="s">
         <v>12</v>
       </c>
@@ -21142,7 +21142,7 @@
       </c>
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A296" s="45"/>
+      <c r="A296" s="39"/>
       <c r="B296" s="7" t="s">
         <v>18</v>
       </c>
@@ -21152,7 +21152,7 @@
       <c r="D296" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E296" s="45"/>
+      <c r="E296" s="39"/>
       <c r="F296" s="7" t="s">
         <v>21</v>
       </c>
@@ -25787,12 +25787,12 @@
       </c>
     </row>
     <row r="361" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A361" s="41" t="s">
+      <c r="A361" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B361" s="42"/>
-      <c r="C361" s="42"/>
-      <c r="D361" s="42"/>
+      <c r="B361" s="38"/>
+      <c r="C361" s="38"/>
+      <c r="D361" s="38"/>
       <c r="E361" s="22">
         <v>7675</v>
       </c>
@@ -25856,40 +25856,40 @@
       <c r="M364" s="3"/>
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A365" s="45" t="s">
+      <c r="A365" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B365" s="43" t="s">
+      <c r="B365" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C365" s="43"/>
-      <c r="D365" s="43"/>
-      <c r="E365" s="45" t="s">
+      <c r="C365" s="40"/>
+      <c r="D365" s="40"/>
+      <c r="E365" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F365" s="43" t="s">
+      <c r="F365" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G365" s="43"/>
-      <c r="H365" s="43"/>
-      <c r="I365" s="43"/>
-      <c r="J365" s="43" t="s">
+      <c r="G365" s="40"/>
+      <c r="H365" s="40"/>
+      <c r="I365" s="40"/>
+      <c r="J365" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K365" s="43"/>
-      <c r="L365" s="43"/>
-      <c r="M365" s="43"/>
+      <c r="K365" s="40"/>
+      <c r="L365" s="40"/>
+      <c r="M365" s="40"/>
     </row>
     <row r="366" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A366" s="45"/>
+      <c r="A366" s="39"/>
       <c r="B366" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C366" s="44" t="s">
+      <c r="C366" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D366" s="44"/>
-      <c r="E366" s="45"/>
+      <c r="D366" s="41"/>
+      <c r="E366" s="39"/>
       <c r="F366" s="7" t="s">
         <v>12</v>
       </c>
@@ -25916,7 +25916,7 @@
       </c>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A367" s="45"/>
+      <c r="A367" s="39"/>
       <c r="B367" s="7" t="s">
         <v>18</v>
       </c>
@@ -25926,7 +25926,7 @@
       <c r="D367" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E367" s="45"/>
+      <c r="E367" s="39"/>
       <c r="F367" s="7" t="s">
         <v>21</v>
       </c>
@@ -26025,12 +26025,12 @@
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" s="41" t="s">
+      <c r="A369" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B369" s="42"/>
-      <c r="C369" s="42"/>
-      <c r="D369" s="42"/>
+      <c r="B369" s="38"/>
+      <c r="C369" s="38"/>
+      <c r="D369" s="38"/>
       <c r="E369" s="22">
         <v>120</v>
       </c>
@@ -26060,18 +26060,18 @@
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A371" s="43" t="s">
+      <c r="A371" s="40" t="s">
         <v>851</v>
       </c>
-      <c r="B371" s="43"/>
-      <c r="C371" s="44" t="s">
+      <c r="B371" s="40"/>
+      <c r="C371" s="41" t="s">
         <v>852</v>
       </c>
-      <c r="D371" s="44"/>
-      <c r="E371" s="44" t="s">
+      <c r="D371" s="41"/>
+      <c r="E371" s="41" t="s">
         <v>853</v>
       </c>
-      <c r="F371" s="44"/>
+      <c r="F371" s="41"/>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="s">
@@ -26080,10 +26080,10 @@
       <c r="B372" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="C372" s="44"/>
-      <c r="D372" s="44"/>
-      <c r="E372" s="44"/>
-      <c r="F372" s="44"/>
+      <c r="C372" s="41"/>
+      <c r="D372" s="41"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="41"/>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="14">
@@ -26092,14 +26092,14 @@
       <c r="B373" s="14">
         <v>2101001</v>
       </c>
-      <c r="C373" s="37" t="s">
+      <c r="C373" s="45" t="s">
         <v>856</v>
       </c>
-      <c r="D373" s="37"/>
-      <c r="E373" s="38">
+      <c r="D373" s="45"/>
+      <c r="E373" s="46">
         <v>38668393.460000001</v>
       </c>
-      <c r="F373" s="39"/>
+      <c r="F373" s="47"/>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="14">
@@ -26108,14 +26108,14 @@
       <c r="B374" s="14">
         <v>2101002</v>
       </c>
-      <c r="C374" s="37" t="s">
+      <c r="C374" s="45" t="s">
         <v>857</v>
       </c>
-      <c r="D374" s="37"/>
-      <c r="E374" s="38">
+      <c r="D374" s="45"/>
+      <c r="E374" s="46">
         <v>4095612.34</v>
       </c>
-      <c r="F374" s="39"/>
+      <c r="F374" s="47"/>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="14">
@@ -26124,14 +26124,14 @@
       <c r="B375" s="14">
         <v>2101003</v>
       </c>
-      <c r="C375" s="37" t="s">
+      <c r="C375" s="45" t="s">
         <v>858</v>
       </c>
-      <c r="D375" s="37"/>
-      <c r="E375" s="38">
+      <c r="D375" s="45"/>
+      <c r="E375" s="46">
         <v>39742.589999999997</v>
       </c>
-      <c r="F375" s="39"/>
+      <c r="F375" s="47"/>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="14">
@@ -26140,14 +26140,14 @@
       <c r="B376" s="14">
         <v>2105001</v>
       </c>
-      <c r="C376" s="37" t="s">
+      <c r="C376" s="45" t="s">
         <v>859</v>
       </c>
-      <c r="D376" s="37"/>
-      <c r="E376" s="38">
+      <c r="D376" s="45"/>
+      <c r="E376" s="46">
         <v>54815.41</v>
       </c>
-      <c r="F376" s="39"/>
+      <c r="F376" s="47"/>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="14">
@@ -26156,14 +26156,14 @@
       <c r="B377" s="14">
         <v>2105002</v>
       </c>
-      <c r="C377" s="37" t="s">
+      <c r="C377" s="45" t="s">
         <v>860</v>
       </c>
-      <c r="D377" s="37"/>
-      <c r="E377" s="38">
+      <c r="D377" s="45"/>
+      <c r="E377" s="46">
         <v>22176.45</v>
       </c>
-      <c r="F377" s="39"/>
+      <c r="F377" s="47"/>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="14">
@@ -26172,14 +26172,14 @@
       <c r="B378" s="14">
         <v>2105003</v>
       </c>
-      <c r="C378" s="37" t="s">
+      <c r="C378" s="45" t="s">
         <v>861</v>
       </c>
-      <c r="D378" s="37"/>
-      <c r="E378" s="38">
+      <c r="D378" s="45"/>
+      <c r="E378" s="46">
         <v>58788.63</v>
       </c>
-      <c r="F378" s="39"/>
+      <c r="F378" s="47"/>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="14">
@@ -26188,14 +26188,14 @@
       <c r="B379" s="14">
         <v>2105004</v>
       </c>
-      <c r="C379" s="37" t="s">
+      <c r="C379" s="45" t="s">
         <v>862</v>
       </c>
-      <c r="D379" s="37"/>
-      <c r="E379" s="38">
+      <c r="D379" s="45"/>
+      <c r="E379" s="46">
         <v>39238.33</v>
       </c>
-      <c r="F379" s="39"/>
+      <c r="F379" s="47"/>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="14">
@@ -26204,14 +26204,14 @@
       <c r="B380" s="14">
         <v>2105005</v>
       </c>
-      <c r="C380" s="37" t="s">
+      <c r="C380" s="45" t="s">
         <v>863</v>
       </c>
-      <c r="D380" s="37"/>
-      <c r="E380" s="38">
+      <c r="D380" s="45"/>
+      <c r="E380" s="46">
         <v>9430.8799999999992</v>
       </c>
-      <c r="F380" s="39"/>
+      <c r="F380" s="47"/>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="14">
@@ -26220,14 +26220,14 @@
       <c r="B381" s="14">
         <v>2105006</v>
       </c>
-      <c r="C381" s="37" t="s">
+      <c r="C381" s="45" t="s">
         <v>864</v>
       </c>
-      <c r="D381" s="37"/>
-      <c r="E381" s="38">
+      <c r="D381" s="45"/>
+      <c r="E381" s="46">
         <v>339596.53</v>
       </c>
-      <c r="F381" s="39"/>
+      <c r="F381" s="47"/>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="14">
@@ -26236,14 +26236,14 @@
       <c r="B382" s="14">
         <v>2105008</v>
       </c>
-      <c r="C382" s="37" t="s">
+      <c r="C382" s="45" t="s">
         <v>865</v>
       </c>
-      <c r="D382" s="37"/>
-      <c r="E382" s="38">
+      <c r="D382" s="45"/>
+      <c r="E382" s="46">
         <v>130533.86</v>
       </c>
-      <c r="F382" s="39"/>
+      <c r="F382" s="47"/>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="14">
@@ -26252,14 +26252,14 @@
       <c r="B383" s="14">
         <v>2105009</v>
       </c>
-      <c r="C383" s="37" t="s">
+      <c r="C383" s="45" t="s">
         <v>866</v>
       </c>
-      <c r="D383" s="37"/>
-      <c r="E383" s="38">
+      <c r="D383" s="45"/>
+      <c r="E383" s="46">
         <v>418562.14</v>
       </c>
-      <c r="F383" s="39"/>
+      <c r="F383" s="47"/>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="16" t="s">
@@ -26287,89 +26287,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E201:E203"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:M110"/>
-    <mergeCell ref="A290:D290"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="E294:E296"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="J201:M201"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="F251:I251"/>
-    <mergeCell ref="J251:M251"/>
-    <mergeCell ref="C371:D372"/>
-    <mergeCell ref="E371:F372"/>
-    <mergeCell ref="C373:D373"/>
-    <mergeCell ref="E373:F373"/>
-    <mergeCell ref="F294:I294"/>
-    <mergeCell ref="J294:M294"/>
-    <mergeCell ref="A361:D361"/>
-    <mergeCell ref="A365:A367"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="C366:D366"/>
-    <mergeCell ref="E365:E367"/>
-    <mergeCell ref="F365:I365"/>
-    <mergeCell ref="J365:M365"/>
     <mergeCell ref="C383:D383"/>
     <mergeCell ref="E383:F383"/>
     <mergeCell ref="O8:S8"/>
@@ -26394,6 +26311,89 @@
     <mergeCell ref="E376:F376"/>
     <mergeCell ref="A369:D369"/>
     <mergeCell ref="A371:B371"/>
+    <mergeCell ref="C371:D372"/>
+    <mergeCell ref="E371:F372"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="E373:F373"/>
+    <mergeCell ref="F294:I294"/>
+    <mergeCell ref="J294:M294"/>
+    <mergeCell ref="A361:D361"/>
+    <mergeCell ref="A365:A367"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="C366:D366"/>
+    <mergeCell ref="E365:E367"/>
+    <mergeCell ref="F365:I365"/>
+    <mergeCell ref="J365:M365"/>
+    <mergeCell ref="A290:D290"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="E294:E296"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="J201:M201"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="F251:I251"/>
+    <mergeCell ref="J251:M251"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E201:E203"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:M110"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
